--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_捷豹组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -327,6 +327,14 @@
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -516,7 +524,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -835,6 +843,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -955,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="110">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -1013,6 +1027,7 @@
     <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -1064,6 +1079,7 @@
     <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1501,7 +1517,7 @@
   <dimension ref="A1:T190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M6" sqref="M6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1623,9 +1639,15 @@
       <c r="L2" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="28"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="19">
+        <v>42682</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
@@ -1667,9 +1689,15 @@
       <c r="L3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="28"/>
+      <c r="M3" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="19">
+        <v>42682</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
@@ -1711,9 +1739,15 @@
       <c r="L4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="28"/>
+      <c r="M4" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="19">
+        <v>42682</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
@@ -1755,9 +1789,15 @@
       <c r="L5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="28"/>
+      <c r="M5" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="19">
+        <v>42682</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
@@ -1799,9 +1839,15 @@
       <c r="L6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="28"/>
+      <c r="M6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="19">
+        <v>42682</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
@@ -1887,9 +1933,15 @@
       <c r="L8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="28"/>
+      <c r="M8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="19">
+        <v>42682</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
       <c r="R8" s="31"/>
@@ -1931,9 +1983,15 @@
       <c r="L9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="28"/>
+      <c r="M9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="19">
+        <v>42682</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>

--- a/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.0/版本Bug和特性计划及评审表v5.1.0_捷豹组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本5.1.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -850,7 +850,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +967,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="7" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="110">
@@ -1516,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:O6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1539,7 +1542,7 @@
     <col min="15" max="15" width="7.6640625" style="12" customWidth="1"/>
     <col min="16" max="16" width="12" style="13" customWidth="1"/>
     <col min="17" max="17" width="17" style="13" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" style="13" customWidth="1"/>
     <col min="19" max="19" width="16.6640625" style="12" customWidth="1"/>
     <col min="20" max="20" width="8.83203125" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
@@ -1848,7 +1851,9 @@
       <c r="O6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="31"/>
+      <c r="P6" s="31">
+        <v>4521</v>
+      </c>
       <c r="Q6" s="31"/>
       <c r="R6" s="31"/>
       <c r="S6" s="37"/>
@@ -1894,7 +1899,9 @@
       <c r="O7" s="28"/>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="R7" s="39" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="37"/>
       <c r="T7" s="38"/>
     </row>
@@ -5659,8 +5666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
